--- a/Project/workbook.xlsx
+++ b/Project/workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\main\SanGuo\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F363FD-50B1-47A9-8F52-67210C1FA2D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73FD167-DFC5-4518-B918-1F8BF9EE9B18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{E2774678-47D9-43F3-AC76-4465CD423E8F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E2774678-47D9-43F3-AC76-4465CD423E8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,23 +57,38 @@
     <t>×</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>攻</t>
+  </si>
+  <si>
+    <t>防</t>
+  </si>
+  <si>
+    <t>差</t>
+  </si>
+  <si>
+    <t>兵</t>
+  </si>
+  <si>
+    <t>伤</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -108,7 +122,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -126,7 +140,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -163,7 +177,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -243,7 +257,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -264,10 +278,44 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.21618884940969679"/>
-                  <c:y val="-0.28959955627093575"/>
+                  <c:x val="-0.23456142628814508"/>
+                  <c:y val="-0.10601378273463617"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = 182.45</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                      <a:t>x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> - 202.37</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -293,106 +341,106 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="zh-CN"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$32</c:f>
+              <c:f>Sheet1!$C$3:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>170.05</c:v>
+                  <c:v>143.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.14</c:v>
+                  <c:v>260.61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124.74</c:v>
+                  <c:v>189.01</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.74</c:v>
+                  <c:v>214.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>128.27000000000001</c:v>
+                  <c:v>185.48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>103.27</c:v>
+                  <c:v>210.48000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>116.12</c:v>
+                  <c:v>197.63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>313.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>124.74</c:v>
+                  <c:v>189.01</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>102.43</c:v>
+                  <c:v>211.32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>107.76</c:v>
+                  <c:v>205.99</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>82.76</c:v>
+                  <c:v>230.99</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>124.74</c:v>
+                  <c:v>189.01</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>99.74</c:v>
+                  <c:v>214.01</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>124.74</c:v>
+                  <c:v>189.01</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61.63</c:v>
+                  <c:v>252.12</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>161.63</c:v>
+                  <c:v>152.12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.4300000000000002</c:v>
+                  <c:v>311.32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>153.13999999999999</c:v>
+                  <c:v>160.61000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>128.13999999999999</c:v>
+                  <c:v>185.61</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>128.27000000000001</c:v>
+                  <c:v>185.48</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>118.43</c:v>
+                  <c:v>195.32</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>116.12</c:v>
+                  <c:v>197.63</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>153.13999999999999</c:v>
+                  <c:v>160.61000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>124.74</c:v>
+                  <c:v>189.01</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>161.63</c:v>
+                  <c:v>152.12</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>107.76</c:v>
+                  <c:v>205.99</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>128.27000000000001</c:v>
+                  <c:v>185.48</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>118.43</c:v>
+                  <c:v>195.32</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>128.27000000000001</c:v>
+                  <c:v>185.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -569,7 +617,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="555091312"/>
@@ -631,7 +679,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="555098528"/>
@@ -679,7 +727,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1250,16 +1298,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1288,7 +1336,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1584,12 +1632,1052 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AAF15F-F2E7-40A9-87B9-325756C7DCB7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1">
+        <v>313.75</v>
+      </c>
+      <c r="B1">
+        <v>170.05</v>
+      </c>
+      <c r="C1">
+        <f>A1-B1</f>
+        <v>143.69999999999999</v>
+      </c>
+      <c r="F1">
+        <v>707</v>
+      </c>
+      <c r="G1">
+        <f>F1^1/2</f>
+        <v>353.5</v>
+      </c>
+      <c r="H1">
+        <f>G1/C1</f>
+        <v>2.4599860821155186</v>
+      </c>
+      <c r="J1">
+        <v>8800</v>
+      </c>
+      <c r="L1">
+        <f>F1^1/3</f>
+        <v>235.66666666666666</v>
+      </c>
+      <c r="M1">
+        <f>L1/C1</f>
+        <v>1.6399907214103457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>313.75</v>
+      </c>
+      <c r="B2">
+        <v>53.14</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C30" si="0">A2-B2</f>
+        <v>260.61</v>
+      </c>
+      <c r="F2">
+        <v>798</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G30" si="1">F2^1/2</f>
+        <v>399</v>
+      </c>
+      <c r="H2">
+        <f>G2/C2</f>
+        <v>1.5310233682514101</v>
+      </c>
+      <c r="J2">
+        <v>8800</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2:L30" si="2">F2^1/3</f>
+        <v>266</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M30" si="3">L2/C2</f>
+        <v>1.0206822455009401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>313.75</v>
+      </c>
+      <c r="B3">
+        <v>124.74</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>189.01</v>
+      </c>
+      <c r="F3">
+        <v>724</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>362</v>
+      </c>
+      <c r="H3">
+        <f>G3/C3</f>
+        <v>1.9152425797576849</v>
+      </c>
+      <c r="J3">
+        <v>8800</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="2"/>
+        <v>241.33333333333334</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="3"/>
+        <v>1.2768283865051233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>313.75</v>
+      </c>
+      <c r="B4">
+        <v>99.74</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>214.01</v>
+      </c>
+      <c r="F4">
+        <v>767</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>383.5</v>
+      </c>
+      <c r="H4">
+        <f>G4/C4</f>
+        <v>1.7919723377412271</v>
+      </c>
+      <c r="J4">
+        <v>8800</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>255.66666666666666</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>1.1946482251608181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>313.75</v>
+      </c>
+      <c r="B5">
+        <v>128.27000000000001</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>185.48</v>
+      </c>
+      <c r="F5">
+        <v>713</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>356.5</v>
+      </c>
+      <c r="H5">
+        <f>G5/C5</f>
+        <v>1.922040112141471</v>
+      </c>
+      <c r="J5">
+        <v>8800</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>237.66666666666666</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>1.2813600747609806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>313.75</v>
+      </c>
+      <c r="B6">
+        <v>103.27</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>210.48000000000002</v>
+      </c>
+      <c r="F6">
+        <v>739</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>369.5</v>
+      </c>
+      <c r="H6">
+        <f>G6/C6</f>
+        <v>1.7555112124667425</v>
+      </c>
+      <c r="J6">
+        <v>8800</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>246.33333333333334</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>1.1703408083111617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>313.75</v>
+      </c>
+      <c r="B7">
+        <v>116.12</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>197.63</v>
+      </c>
+      <c r="F7">
+        <v>760</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="H7">
+        <f>G7/C7</f>
+        <v>1.9227850022769823</v>
+      </c>
+      <c r="J7">
+        <v>8800</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>253.33333333333334</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>1.2818566681846548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>313.75</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>313.75</v>
+      </c>
+      <c r="F8">
+        <v>847</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>423.5</v>
+      </c>
+      <c r="H8">
+        <f>G8/C8</f>
+        <v>1.349800796812749</v>
+      </c>
+      <c r="J8">
+        <v>8800</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>282.33333333333331</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.89986719787516589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>313.75</v>
+      </c>
+      <c r="B9">
+        <v>124.74</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>189.01</v>
+      </c>
+      <c r="F9">
+        <v>759</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>379.5</v>
+      </c>
+      <c r="H9">
+        <f>G9/C9</f>
+        <v>2.0078302735305011</v>
+      </c>
+      <c r="J9">
+        <v>8800</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>253</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>1.3385535156870008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>313.75</v>
+      </c>
+      <c r="B10">
+        <v>102.43</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>211.32</v>
+      </c>
+      <c r="F10">
+        <v>741</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>370.5</v>
+      </c>
+      <c r="H10">
+        <f>G10/C10</f>
+        <v>1.7532651902328222</v>
+      </c>
+      <c r="J10">
+        <v>8800</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>247</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>1.1688434601552149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>313.75</v>
+      </c>
+      <c r="B11">
+        <v>107.76</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>205.99</v>
+      </c>
+      <c r="F11">
+        <v>773</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>386.5</v>
+      </c>
+      <c r="H11">
+        <f>G11/C11</f>
+        <v>1.8763046749842225</v>
+      </c>
+      <c r="J11">
+        <v>8800</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>257.66666666666669</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>1.2508697833228151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>313.75</v>
+      </c>
+      <c r="B12">
+        <v>82.76</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>230.99</v>
+      </c>
+      <c r="F12">
+        <v>800</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="H12">
+        <f>G12/C12</f>
+        <v>1.731676695960864</v>
+      </c>
+      <c r="J12">
+        <v>8800</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>1.154451130640576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>313.75</v>
+      </c>
+      <c r="B13">
+        <v>124.74</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>189.01</v>
+      </c>
+      <c r="F13">
+        <v>762</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>381</v>
+      </c>
+      <c r="H13">
+        <f>G13/C13</f>
+        <v>2.0157663615681711</v>
+      </c>
+      <c r="J13">
+        <v>8800</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>254</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>1.3438442410454474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>313.75</v>
+      </c>
+      <c r="B14">
+        <v>99.74</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>214.01</v>
+      </c>
+      <c r="F14">
+        <v>763</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>381.5</v>
+      </c>
+      <c r="H14">
+        <f>G14/C14</f>
+        <v>1.7826269800476613</v>
+      </c>
+      <c r="J14">
+        <v>8800</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>254.33333333333334</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>1.188417986698441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>313.75</v>
+      </c>
+      <c r="B15">
+        <v>124.74</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>189.01</v>
+      </c>
+      <c r="F15">
+        <v>729</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>364.5</v>
+      </c>
+      <c r="H15">
+        <f>G15/C15</f>
+        <v>1.9284693931538015</v>
+      </c>
+      <c r="J15">
+        <v>8800</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>243</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>1.2856462621025344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>313.75</v>
+      </c>
+      <c r="B16">
+        <v>61.63</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>252.12</v>
+      </c>
+      <c r="F16">
+        <v>840</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="H16">
+        <f>G16/C16</f>
+        <v>1.6658733936220846</v>
+      </c>
+      <c r="J16">
+        <v>8800</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>1.110582262414723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>313.75</v>
+      </c>
+      <c r="B17">
+        <v>161.63</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>152.12</v>
+      </c>
+      <c r="F17">
+        <v>722</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>361</v>
+      </c>
+      <c r="H17">
+        <f>G17/C17</f>
+        <v>2.3731264790954509</v>
+      </c>
+      <c r="J17">
+        <v>8800</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>240.66666666666666</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>1.5820843193969671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18">
+        <v>313.75</v>
+      </c>
+      <c r="B18">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>311.32</v>
+      </c>
+      <c r="F18">
+        <v>866</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>433</v>
+      </c>
+      <c r="H18">
+        <f>G18/C18</f>
+        <v>1.3908518566105614</v>
+      </c>
+      <c r="J18">
+        <v>8800</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>288.66666666666669</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>0.92723457107370777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19">
+        <v>313.75</v>
+      </c>
+      <c r="B19">
+        <v>153.13999999999999</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>160.61000000000001</v>
+      </c>
+      <c r="F19">
+        <v>755</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>377.5</v>
+      </c>
+      <c r="H19">
+        <f>G19/C19</f>
+        <v>2.3504140464479173</v>
+      </c>
+      <c r="J19">
+        <v>8800</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>251.66666666666666</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>1.5669426976319447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20">
+        <v>313.75</v>
+      </c>
+      <c r="B20">
+        <v>128.13999999999999</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>185.61</v>
+      </c>
+      <c r="F20">
+        <v>725</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>362.5</v>
+      </c>
+      <c r="H20">
+        <f>G20/C20</f>
+        <v>1.9530197726415601</v>
+      </c>
+      <c r="J20">
+        <v>8800</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>241.66666666666666</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>1.3020131817610401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21">
+        <v>313.75</v>
+      </c>
+      <c r="B21">
+        <v>128.27000000000001</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>185.48</v>
+      </c>
+      <c r="F21">
+        <v>767</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>383.5</v>
+      </c>
+      <c r="H21">
+        <f>G21/C21</f>
+        <v>2.0676083674789738</v>
+      </c>
+      <c r="J21">
+        <v>8800</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>255.66666666666666</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>1.3784055783193156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22">
+        <v>313.75</v>
+      </c>
+      <c r="B22">
+        <v>118.43</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>195.32</v>
+      </c>
+      <c r="F22">
+        <v>778</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>389</v>
+      </c>
+      <c r="H22">
+        <f>G22/C22</f>
+        <v>1.991603522424739</v>
+      </c>
+      <c r="J22">
+        <v>8800</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>259.33333333333331</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>1.3277356816164925</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23">
+        <v>313.75</v>
+      </c>
+      <c r="B23">
+        <v>116.12</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>197.63</v>
+      </c>
+      <c r="F23">
+        <v>781</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>390.5</v>
+      </c>
+      <c r="H23">
+        <f>G23/C23</f>
+        <v>1.9759145878662148</v>
+      </c>
+      <c r="J23">
+        <v>8800</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>260.33333333333331</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>1.3172763919108097</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24">
+        <v>313.75</v>
+      </c>
+      <c r="B24">
+        <v>153.13999999999999</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>160.61000000000001</v>
+      </c>
+      <c r="F24">
+        <v>723</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>361.5</v>
+      </c>
+      <c r="H24">
+        <f>G24/C24</f>
+        <v>2.2507938484527736</v>
+      </c>
+      <c r="J24">
+        <v>8800</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>1.5005292323018491</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25">
+        <v>313.75</v>
+      </c>
+      <c r="B25">
+        <v>124.74</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>189.01</v>
+      </c>
+      <c r="F25">
+        <v>739</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>369.5</v>
+      </c>
+      <c r="H25">
+        <f>G25/C25</f>
+        <v>1.9549230199460348</v>
+      </c>
+      <c r="J25">
+        <v>8800</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>246.33333333333334</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>1.3032820132973566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26">
+        <v>313.75</v>
+      </c>
+      <c r="B26">
+        <v>161.63</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>152.12</v>
+      </c>
+      <c r="F26">
+        <v>741</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>370.5</v>
+      </c>
+      <c r="H26">
+        <f>G26/C26</f>
+        <v>2.4355771759137523</v>
+      </c>
+      <c r="J26">
+        <v>8800</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>247</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>1.6237181172758348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27">
+        <v>313.75</v>
+      </c>
+      <c r="B27">
+        <v>107.76</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>205.99</v>
+      </c>
+      <c r="F27">
+        <v>795</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>397.5</v>
+      </c>
+      <c r="H27">
+        <f>G27/C27</f>
+        <v>1.9297053255012377</v>
+      </c>
+      <c r="J27">
+        <v>8800</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>265</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>1.2864702170008253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28">
+        <v>313.75</v>
+      </c>
+      <c r="B28">
+        <v>128.27000000000001</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>185.48</v>
+      </c>
+      <c r="F28">
+        <v>752</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>376</v>
+      </c>
+      <c r="H28">
+        <f>G28/C28</f>
+        <v>2.0271727409963338</v>
+      </c>
+      <c r="J28">
+        <v>8800</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>250.66666666666666</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>1.351448493997556</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29">
+        <v>313.75</v>
+      </c>
+      <c r="B29">
+        <v>118.43</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>195.32</v>
+      </c>
+      <c r="F29">
+        <v>789</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>394.5</v>
+      </c>
+      <c r="H29">
+        <f>G29/C29</f>
+        <v>2.019762441122261</v>
+      </c>
+      <c r="J29">
+        <v>8800</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>263</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>1.3465082940815074</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30">
+        <v>313.75</v>
+      </c>
+      <c r="B30">
+        <v>128.27000000000001</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>185.48</v>
+      </c>
+      <c r="F30">
+        <v>736</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>368</v>
+      </c>
+      <c r="H30">
+        <f>G30/C30</f>
+        <v>1.9840414060815184</v>
+      </c>
+      <c r="J30">
+        <v>8800</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>245.33333333333334</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>1.3226942707210123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1601,7 +2689,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1612,13 +2700,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC8345F-C7A7-4144-9D03-55E1EFDF7CC4}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1">
         <v>313.75</v>
       </c>
@@ -1644,7 +2732,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>313.75</v>
       </c>
@@ -1675,9 +2763,17 @@
       <c r="E3">
         <v>8800</v>
       </c>
+      <c r="F3">
+        <f>E3/H3</f>
+        <v>1788.6280056577084</v>
+      </c>
       <c r="G3">
         <v>707</v>
       </c>
+      <c r="H3">
+        <f>G3/C3</f>
+        <v>4.9199721642310372</v>
+      </c>
       <c r="I3">
         <v>151.9</v>
       </c>
@@ -1697,7 +2793,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>313.75</v>
       </c>
@@ -1711,9 +2807,17 @@
       <c r="E4">
         <v>8800</v>
       </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F32" si="1">E4/H4</f>
+        <v>2873.8947368421054</v>
+      </c>
       <c r="G4">
         <v>798</v>
       </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H32" si="2">G4/C4</f>
+        <v>3.0620467365028201</v>
+      </c>
       <c r="I4">
         <v>126.9</v>
       </c>
@@ -1733,7 +2837,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>313.75</v>
       </c>
@@ -1747,9 +2851,17 @@
       <c r="E5">
         <v>8800</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2297.3591160220994</v>
+      </c>
       <c r="G5">
         <v>724</v>
       </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>3.8304851595153697</v>
+      </c>
       <c r="I5">
         <v>162.69999999999999</v>
       </c>
@@ -1757,7 +2869,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>313.75</v>
       </c>
@@ -1771,9 +2883,17 @@
       <c r="E6">
         <v>8800</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2455.3950456323337</v>
+      </c>
       <c r="G6">
         <v>767</v>
       </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>3.5839446754824542</v>
+      </c>
       <c r="I6">
         <v>151.9</v>
       </c>
@@ -1787,7 +2907,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>313.75</v>
       </c>
@@ -1801,14 +2921,22 @@
       <c r="E7">
         <v>8800</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2289.2342215988779</v>
+      </c>
       <c r="G7">
         <v>713</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>3.8440802242829419</v>
+      </c>
       <c r="P7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>313.75</v>
       </c>
@@ -1822,9 +2950,17 @@
       <c r="E8">
         <v>8800</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2506.392422192152</v>
+      </c>
       <c r="G8">
         <v>739</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>3.5110224249334849</v>
+      </c>
       <c r="P8">
         <v>119.06</v>
       </c>
@@ -1832,7 +2968,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>313.75</v>
       </c>
@@ -1846,9 +2982,17 @@
       <c r="E9">
         <v>8800</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>2288.3473684210526</v>
+      </c>
       <c r="G9">
         <v>760</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>3.8455700045539647</v>
+      </c>
       <c r="P9">
         <v>177.97</v>
       </c>
@@ -1856,7 +3000,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>313.75</v>
       </c>
@@ -1870,11 +3014,19 @@
       <c r="E10">
         <v>8800</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>3259.7402597402597</v>
+      </c>
       <c r="G10">
         <v>847</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>2.699601593625498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>313.75</v>
       </c>
@@ -1888,9 +3040,17 @@
       <c r="E11">
         <v>8800</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2191.4202898550725</v>
+      </c>
       <c r="G11">
         <v>759</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>4.0156605470610023</v>
+      </c>
       <c r="P11">
         <v>335.37</v>
       </c>
@@ -1898,7 +3058,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>313.75</v>
       </c>
@@ -1912,14 +3072,22 @@
       <c r="E12">
         <v>8800</v>
       </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2509.6032388663966</v>
+      </c>
       <c r="G12">
         <v>741</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>3.5065303804656445</v>
+      </c>
       <c r="P12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>313.75</v>
       </c>
@@ -1933,9 +3101,17 @@
       <c r="E13">
         <v>8800</v>
       </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>2345.0349288486418</v>
+      </c>
       <c r="G13">
         <v>773</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>3.752609349968445</v>
+      </c>
       <c r="P13">
         <v>144.19999999999999</v>
       </c>
@@ -1943,7 +3119,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>313.75</v>
       </c>
@@ -1957,14 +3133,22 @@
       <c r="E14">
         <v>8800</v>
       </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>2540.89</v>
+      </c>
       <c r="G14">
         <v>800</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>3.4633533919217281</v>
+      </c>
       <c r="P14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>313.75</v>
       </c>
@@ -1978,9 +3162,17 @@
       <c r="E15">
         <v>8800</v>
       </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>2182.792650918635</v>
+      </c>
       <c r="G15">
         <v>762</v>
       </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>4.0315327231363423</v>
+      </c>
       <c r="P15">
         <v>124.74</v>
       </c>
@@ -1988,7 +3180,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>313.75</v>
       </c>
@@ -2002,9 +3194,17 @@
       <c r="E16">
         <v>8800</v>
       </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>2468.2673656618613</v>
+      </c>
       <c r="G16">
         <v>763</v>
       </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>3.5652539600953226</v>
+      </c>
       <c r="P16">
         <v>161.63</v>
       </c>
@@ -2012,7 +3212,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>313.75</v>
       </c>
@@ -2026,11 +3226,19 @@
       <c r="E17">
         <v>8800</v>
       </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>2281.6021947873796</v>
+      </c>
       <c r="G17">
         <v>729</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>3.856938786307603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>313.75</v>
       </c>
@@ -2044,9 +3252,17 @@
       <c r="E18">
         <v>8800</v>
       </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>2641.2571428571432</v>
+      </c>
       <c r="G18">
         <v>840</v>
       </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>3.3317467872441693</v>
+      </c>
       <c r="P18">
         <v>335.37</v>
       </c>
@@ -2054,7 +3270,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>313.75</v>
       </c>
@@ -2068,14 +3284,22 @@
       <c r="E19">
         <v>8800</v>
       </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1854.0941828254847</v>
+      </c>
       <c r="G19">
         <v>722</v>
       </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>4.7462529581909019</v>
+      </c>
       <c r="P19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>313.75</v>
       </c>
@@ -2089,9 +3313,17 @@
       <c r="E20">
         <v>8800</v>
       </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>3163.5288683602771</v>
+      </c>
       <c r="G20">
         <v>866</v>
       </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>2.7817037132211229</v>
+      </c>
       <c r="P20">
         <v>170.05</v>
       </c>
@@ -2099,7 +3331,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>313.75</v>
       </c>
@@ -2113,9 +3345,17 @@
       <c r="E21">
         <v>8800</v>
       </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>1872.01059602649</v>
+      </c>
       <c r="G21">
         <v>755</v>
       </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>4.7008280928958346</v>
+      </c>
       <c r="P21">
         <v>145.05000000000001</v>
       </c>
@@ -2123,7 +3363,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>313.75</v>
       </c>
@@ -2137,11 +3377,19 @@
       <c r="E22">
         <v>8800</v>
       </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>2252.9213793103449</v>
+      </c>
       <c r="G22">
         <v>725</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>3.9060395452831203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>313.75</v>
       </c>
@@ -2155,11 +3403,19 @@
       <c r="E23">
         <v>8800</v>
       </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>2128.0625814863101</v>
+      </c>
       <c r="G23">
         <v>767</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>4.1352167349579476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>313.75</v>
       </c>
@@ -2173,11 +3429,19 @@
       <c r="E24">
         <v>8800</v>
       </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>2209.2750642673518</v>
+      </c>
       <c r="G24">
         <v>778</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>3.9832070448494781</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>313.75</v>
       </c>
@@ -2191,11 +3455,19 @@
       <c r="E25">
         <v>8800</v>
       </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>2226.8169014084506</v>
+      </c>
       <c r="G25">
         <v>781</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>3.9518291757324295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>313.75</v>
       </c>
@@ -2209,11 +3481,19 @@
       <c r="E26">
         <v>8800</v>
       </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1954.8658367911482</v>
+      </c>
       <c r="G26">
         <v>723</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>4.5015876969055473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>313.75</v>
       </c>
@@ -2227,11 +3507,19 @@
       <c r="E27">
         <v>8800</v>
       </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>2250.7280108254395</v>
+      </c>
       <c r="G27">
         <v>739</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>3.9098460398920696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>313.75</v>
       </c>
@@ -2245,11 +3533,19 @@
       <c r="E28">
         <v>8800</v>
       </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1806.5533063427799</v>
+      </c>
       <c r="G28">
         <v>741</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>4.8711543518275047</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>313.75</v>
       </c>
@@ -2263,11 +3559,19 @@
       <c r="E29">
         <v>8800</v>
       </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>2280.1408805031447</v>
+      </c>
       <c r="G29">
         <v>795</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>3.8594106510024755</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>313.75</v>
       </c>
@@ -2281,11 +3585,19 @@
       <c r="E30">
         <v>8800</v>
       </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>2170.5106382978724</v>
+      </c>
       <c r="G30">
         <v>752</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>4.0543454819926676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>313.75</v>
       </c>
@@ -2299,11 +3611,19 @@
       <c r="E31">
         <v>8800</v>
       </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>2178.4740177439794</v>
+      </c>
       <c r="G31">
         <v>789</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>4.039524882244522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>313.75</v>
       </c>
@@ -2317,11 +3637,19 @@
       <c r="E32">
         <v>8800</v>
       </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>2217.695652173913</v>
+      </c>
       <c r="G32">
         <v>736</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>3.9680828121630367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -2329,7 +3657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>74.459999999999994</v>
       </c>
@@ -2343,7 +3671,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>74.459999999999994</v>
       </c>
@@ -2357,7 +3685,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>110.8</v>
       </c>
@@ -2371,7 +3699,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>74.430000000000007</v>
       </c>
@@ -2385,7 +3713,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>74.459999999999994</v>
       </c>
@@ -2399,7 +3727,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>0</v>
       </c>
@@ -2413,7 +3741,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>74.459999999999994</v>
       </c>
@@ -2427,7 +3755,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>74.459999999999994</v>
       </c>
@@ -2435,7 +3763,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>74.459999999999994</v>
       </c>
@@ -2443,7 +3771,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>74.459999999999994</v>
       </c>
@@ -2451,7 +3779,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>149.97</v>
       </c>
@@ -2459,7 +3787,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>149.03</v>
       </c>
@@ -2467,7 +3795,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>142.19999999999999</v>
       </c>
@@ -2475,7 +3803,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>117.2</v>
       </c>
@@ -2483,7 +3811,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>149.03</v>
       </c>
@@ -2491,7 +3819,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>149.03</v>
       </c>
@@ -2499,7 +3827,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>77.430000000000007</v>
       </c>
@@ -2507,7 +3835,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>52.43</v>
       </c>
